--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_12_LargeChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_12_LargeChart.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChartData" sheetId="1" r:id="R3c51223b8e464792"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChartData" sheetId="1" r:id="R774de025ed604ed6"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -153,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8c2a810881ab42fd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R533fb45cba734c5a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8174,6 +8175,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R60c47f7e038e44ee"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rac37fb7a9f0748b4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_12_LargeChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_12_LargeChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChartData" sheetId="1" r:id="R774de025ed604ed6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChartData" sheetId="1" r:id="Rb439f3686c064159"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -84,6 +84,12 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'ChartData'!$A$2:$A$1001</c:f>
@@ -154,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R533fb45cba734c5a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ae11e54ab5c4a94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8175,6 +8181,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rac37fb7a9f0748b4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc026768b71204d4f"/>
 </x:worksheet>
 </file>